--- a/Documents/MR Report/MR Report - Project Management App.xlsx
+++ b/Documents/MR Report/MR Report - Project Management App.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t xml:space="preserve">Having leading and or trailing spaces in the databse. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">closed. </t>
   </si>
   <si>
     <t>Database Enhancement specifically passwords</t>
@@ -173,6 +170,81 @@
   </si>
   <si>
     <t>Critical error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Retriveal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attempted to retrieve data too early. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not having the the data ready </t>
+  </si>
+  <si>
+    <t>List Retrival</t>
+  </si>
+  <si>
+    <t>Retrieving list of users too slow, crashed web server.</t>
+  </si>
+  <si>
+    <t>Parsing user table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parsing user table entries too slow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crash the web server by retriving the list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parse the user table </t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>ST 1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong wording on button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The create account button has the wrong text on the button </t>
+  </si>
+  <si>
+    <t>Have the wrong text on the button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolved. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Login button has the wrong text on the button </t>
+  </si>
+  <si>
+    <t>ST 5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App Stops </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a Task will crash the app and kick user to the Login page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a Task in the Task list screen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When adding a member, the click does nothing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">App does nothing when member email is clicked </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When sending an invite to a member, the click does nothing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add a member by clicking their email </t>
   </si>
 </sst>
 </file>
@@ -277,7 +349,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -295,14 +367,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -328,14 +394,14 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -647,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,46 +729,46 @@
     <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.85546875" customWidth="1"/>
     <col min="8" max="8" width="19" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23" t="s">
-        <v>43</v>
+      <c r="A1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="25"/>
+      <c r="B3" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="22"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -710,15 +776,26 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="13"/>
+    </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
@@ -749,240 +826,468 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>1</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="15">
         <v>42404</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>1</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>2</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="15">
+        <v>42406</v>
+      </c>
+      <c r="D9" s="19">
+        <v>4</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>3</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15">
+        <v>42416</v>
+      </c>
+      <c r="D10" s="14">
+        <v>3</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>4</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="16">
+        <v>42422</v>
+      </c>
+      <c r="D11" s="23">
+        <v>2</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>5</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="15">
+        <v>42424</v>
+      </c>
+      <c r="D12" s="23">
+        <v>2</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>6</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="15">
+        <v>42424</v>
+      </c>
+      <c r="D13" s="23">
+        <v>2</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>7</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="15">
+        <v>42424</v>
+      </c>
+      <c r="D14" s="19">
+        <v>4</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>8</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="16">
+        <v>42425</v>
+      </c>
+      <c r="D15" s="14">
+        <v>3</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="12" t="s">
+      <c r="F15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="H15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>9</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="15">
+        <v>42427</v>
+      </c>
+      <c r="D16" s="14">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>10</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="15">
+        <v>42427</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>11</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="15">
+        <v>42427</v>
+      </c>
+      <c r="D18" s="14">
+        <v>3</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>12</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="15">
+        <v>42429</v>
+      </c>
+      <c r="D19" s="19">
+        <v>4</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="B20" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="15">
+        <v>42429</v>
+      </c>
+      <c r="D20" s="19">
+        <v>4</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>14</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="15">
+        <v>42429</v>
+      </c>
+      <c r="D21" s="23">
         <v>2</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="17">
-        <v>42406</v>
-      </c>
-      <c r="D9" s="21">
-        <v>4</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>3</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="17">
-        <v>42416</v>
-      </c>
-      <c r="D10" s="16">
-        <v>3</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="12" t="s">
+      <c r="E21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
         <v>15</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
-        <v>4</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="18">
-        <v>42422</v>
-      </c>
-      <c r="D11" s="26">
+      <c r="B22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="15">
+        <v>42429</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>16</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="15">
+        <v>42429</v>
+      </c>
+      <c r="D23" s="23">
         <v>2</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <v>5</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="17">
-        <v>42424</v>
-      </c>
-      <c r="D12" s="14">
-        <v>1</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
-        <v>6</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="17">
-        <v>42424</v>
-      </c>
-      <c r="D13" s="14">
-        <v>1</v>
-      </c>
-      <c r="E13" s="15" t="s">
+      <c r="E23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <v>7</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="17">
-        <v>42424</v>
-      </c>
-      <c r="D14" s="21">
-        <v>4</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
-        <v>8</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="18">
-        <v>42425</v>
-      </c>
-      <c r="D15" s="16">
-        <v>2</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="G16" s="11"/>
+      <c r="F23" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documents/MR Report/MR Report - Project Management App.xlsx
+++ b/Documents/MR Report/MR Report - Project Management App.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="87">
   <si>
     <t>ID</t>
   </si>
@@ -97,9 +97,6 @@
     <t>ST 2.0</t>
   </si>
   <si>
-    <t>ST 13.0</t>
-  </si>
-  <si>
     <t>ST 11.0</t>
   </si>
   <si>
@@ -245,6 +242,42 @@
   </si>
   <si>
     <t xml:space="preserve">Add a member by clicking their email </t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>ST 10.0</t>
+  </si>
+  <si>
+    <t>ST 12.0</t>
+  </si>
+  <si>
+    <t>ST 6.0</t>
+  </si>
+  <si>
+    <t>ST 7.0</t>
+  </si>
+  <si>
+    <t>ST 22.0</t>
+  </si>
+  <si>
+    <t>ST 23.0</t>
+  </si>
+  <si>
+    <t>No Task available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empty task list </t>
+  </si>
+  <si>
+    <t>No task to submit to Leader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No task to accept or deny </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cant add members </t>
   </si>
 </sst>
 </file>
@@ -349,7 +382,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -403,6 +436,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,19 +771,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="2"/>
@@ -754,10 +791,10 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="2"/>
@@ -765,10 +802,10 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -776,10 +813,10 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="2"/>
@@ -845,13 +882,13 @@
         <v>21</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>22</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="63" x14ac:dyDescent="0.25">
@@ -871,16 +908,16 @@
         <v>24</v>
       </c>
       <c r="F9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>41</v>
-      </c>
       <c r="I9" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
@@ -906,10 +943,10 @@
         <v>14</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="63" x14ac:dyDescent="0.25">
@@ -938,7 +975,7 @@
         <v>17</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
@@ -955,19 +992,19 @@
         <v>2</v>
       </c>
       <c r="E12" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="G12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="H12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="I12" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.25">
@@ -984,7 +1021,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>18</v>
@@ -996,7 +1033,7 @@
         <v>20</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
@@ -1004,7 +1041,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="15">
         <v>42424</v>
@@ -1013,19 +1050,19 @@
         <v>4</v>
       </c>
       <c r="E14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="I14" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
@@ -1054,7 +1091,7 @@
         <v>12</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1074,16 +1111,16 @@
         <v>24</v>
       </c>
       <c r="F16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="H16" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="I16" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
@@ -1103,16 +1140,16 @@
         <v>24</v>
       </c>
       <c r="F17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="H17" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1132,16 +1169,16 @@
         <v>24</v>
       </c>
       <c r="F18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="H18" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1149,7 +1186,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="15">
         <v>42429</v>
@@ -1158,19 +1195,19 @@
         <v>4</v>
       </c>
       <c r="E19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="G19" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>64</v>
-      </c>
       <c r="I19" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1178,7 +1215,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="15">
         <v>42429</v>
@@ -1190,16 +1227,16 @@
         <v>25</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1207,7 +1244,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="15">
         <v>42429</v>
@@ -1216,19 +1253,19 @@
         <v>2</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1236,7 +1273,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="15">
         <v>42429</v>
@@ -1245,19 +1282,19 @@
         <v>1</v>
       </c>
       <c r="E22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="G22" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="H22" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="I22" s="13" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1265,7 +1302,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="15">
         <v>42429</v>
@@ -1274,20 +1311,141 @@
         <v>2</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="I23" s="13" t="s">
-        <v>66</v>
-      </c>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>17</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="15">
+        <v>42430</v>
+      </c>
+      <c r="D24" s="25">
+        <v>2</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>18</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="15">
+        <v>42430</v>
+      </c>
+      <c r="D25" s="25">
+        <v>2</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>19</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="15">
+        <v>42430</v>
+      </c>
+      <c r="D26" s="25">
+        <v>2</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>20</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="15">
+        <v>42430</v>
+      </c>
+      <c r="D27" s="25">
+        <v>2</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1302,7 +1460,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Documents/MR Report/MR Report - Project Management App.xlsx
+++ b/Documents/MR Report/MR Report - Project Management App.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="89">
   <si>
     <t>ID</t>
   </si>
@@ -214,9 +214,6 @@
     <t xml:space="preserve">Resolved. </t>
   </si>
   <si>
-    <t xml:space="preserve">Active </t>
-  </si>
-  <si>
     <t xml:space="preserve">The Login button has the wrong text on the button </t>
   </si>
   <si>
@@ -244,9 +241,6 @@
     <t xml:space="preserve">Add a member by clicking their email </t>
   </si>
   <si>
-    <t>Fixed</t>
-  </si>
-  <si>
     <t>ST 10.0</t>
   </si>
   <si>
@@ -278,6 +272,18 @@
   </si>
   <si>
     <t xml:space="preserve">Cant add members </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong values </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong values in combo box 3 in create a task </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attempted to retrieve input from user before view is initialized </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start the app </t>
   </si>
 </sst>
 </file>
@@ -382,7 +388,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -436,10 +442,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +994,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>27</v>
@@ -1021,7 +1023,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>18</v>
@@ -1207,7 +1209,7 @@
         <v>63</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1230,13 +1232,13 @@
         <v>61</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>63</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1256,16 +1258,16 @@
         <v>31</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1282,19 +1284,19 @@
         <v>1</v>
       </c>
       <c r="E22" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="G22" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="H22" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="I22" s="13" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1314,16 +1316,16 @@
         <v>26</v>
       </c>
       <c r="F23" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="I23" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1336,23 +1338,23 @@
       <c r="C24" s="15">
         <v>42430</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="23">
         <v>2</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F24" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>84</v>
-      </c>
       <c r="H24" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1365,23 +1367,23 @@
       <c r="C25" s="15">
         <v>42430</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="23">
         <v>2</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1394,23 +1396,23 @@
       <c r="C26" s="15">
         <v>42430</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="23">
         <v>2</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="I26" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1423,29 +1425,82 @@
       <c r="C27" s="15">
         <v>42430</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>21</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="15">
+        <v>42431</v>
+      </c>
+      <c r="D28" s="23">
         <v>2</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" s="11" t="s">
+      <c r="E28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>22</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="15">
+        <v>42431</v>
+      </c>
+      <c r="D29" s="14">
+        <v>3</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="26"/>
+      <c r="I29" s="13" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documents/MR Report/MR Report - Project Management App.xlsx
+++ b/Documents/MR Report/MR Report - Project Management App.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="136">
   <si>
     <t>ID</t>
   </si>
@@ -214,6 +214,9 @@
     <t xml:space="preserve">Resolved. </t>
   </si>
   <si>
+    <t xml:space="preserve">Active </t>
+  </si>
+  <si>
     <t xml:space="preserve">The Login button has the wrong text on the button </t>
   </si>
   <si>
@@ -274,16 +277,161 @@
     <t xml:space="preserve">Cant add members </t>
   </si>
   <si>
-    <t xml:space="preserve">Wrong values </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wrong values in combo box 3 in create a task </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attempted to retrieve input from user before view is initialized </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start the app </t>
+    <t>Resolved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input Retrival </t>
+  </si>
+  <si>
+    <t>Attempted to retrieve input from user before view is initialized.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid values </t>
+  </si>
+  <si>
+    <t>Wrong values in a combo box</t>
+  </si>
+  <si>
+    <t>Dr.Tan / Prof. Pham</t>
+  </si>
+  <si>
+    <t>Login to the App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alert user which screen they are in </t>
+  </si>
+  <si>
+    <t>Everytime a user navagate to screen in the app they should know in which screen they are.</t>
+  </si>
+  <si>
+    <t>Specify to the user that the password should be longer than 4 characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create an account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create account screen </t>
+  </si>
+  <si>
+    <t>Password Encryption</t>
+  </si>
+  <si>
+    <t>The password should be saved in the database in a encrypted format.</t>
+  </si>
+  <si>
+    <t>Welcome message after logging in</t>
+  </si>
+  <si>
+    <t>There should be some type of welcoming messaged display in the main screen after the user logged in.</t>
+  </si>
+  <si>
+    <t>Merge logging activity and create account activity</t>
+  </si>
+  <si>
+    <t>Create account screen and logging screen should be one screen</t>
+  </si>
+  <si>
+    <t>Load the App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete unicode character that gets attached to the user data in the database.
+</t>
+  </si>
+  <si>
+    <t>Delete Unicode character</t>
+  </si>
+  <si>
+    <t>Any data that is retrevied from the database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viewing of task in the Task List screen </t>
+  </si>
+  <si>
+    <t>Adding of themes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The overall look of the application </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When sending an invite to a possible member </t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a task </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the leader is reviewing the task preformed by the member who submited the task </t>
+  </si>
+  <si>
+    <t>Runing the app on devices not specified in the test configuration</t>
+  </si>
+  <si>
+    <t>When leader is viwing the member list of the members in the project</t>
+  </si>
+  <si>
+    <t>Member list activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besides displaying the members' id, the client requested to have the name of the members as well, displayed. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing app in different devices </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The app must be tested in different devices to make sure that all the views that are part of the app display accordingly. 
+</t>
+  </si>
+  <si>
+    <t>Slider in the task list activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The slider that the leader uses to mark the level of completion of a task, should have the % character besides the number for clarity purposes. 
+</t>
+  </si>
+  <si>
+    <t>Creating a task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The button to submit a task must be disable until the task required fields are filled out completely. 
+</t>
+  </si>
+  <si>
+    <t>Checking email is valid</t>
+  </si>
+  <si>
+    <t>The app must check if the email address given as the user address is valid or active. if it is not active it should be rejected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The app should be able to accommodate user who may have a problem seeing certain colors. the app should offer different theme that provide different color for the app.
+</t>
+  </si>
+  <si>
+    <t>Message in the list task activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should a message informing the user that there is no task to display if the request to the database provides no task to display. 
+</t>
+  </si>
+  <si>
+    <t>Tutorial screen and main screen</t>
+  </si>
+  <si>
+    <t>User should get from the main screen to the tutorial screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All </t>
+  </si>
+  <si>
+    <t>ST 1.0 &amp; ST 2.0</t>
+  </si>
+  <si>
+    <t>ST 4.0 &amp; ST 11.0</t>
+  </si>
+  <si>
+    <t>ST.5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non Functional Requirement </t>
   </si>
 </sst>
 </file>
@@ -388,7 +536,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -441,6 +589,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -752,19 +906,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.85546875" customWidth="1"/>
     <col min="8" max="8" width="19" style="9" bestFit="1" customWidth="1"/>
@@ -994,7 +1151,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>27</v>
@@ -1023,7 +1180,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>18</v>
@@ -1232,7 +1389,7 @@
         <v>61</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>63</v>
@@ -1258,13 +1415,13 @@
         <v>31</v>
       </c>
       <c r="F21" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="H21" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>64</v>
@@ -1284,19 +1441,19 @@
         <v>1</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1316,16 +1473,16 @@
         <v>26</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1342,16 +1499,16 @@
         <v>2</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G24" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="I24" s="13" t="s">
         <v>64</v>
@@ -1371,19 +1528,19 @@
         <v>2</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1400,19 +1557,19 @@
         <v>2</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1429,19 +1586,19 @@
         <v>1</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1461,16 +1618,16 @@
         <v>24</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1487,27 +1644,437 @@
         <v>3</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H29" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>64</v>
-      </c>
+    </row>
+    <row r="30" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>23</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="15">
+        <v>42434</v>
+      </c>
+      <c r="D30" s="19">
+        <v>4</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>24</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="15">
+        <v>42434</v>
+      </c>
+      <c r="D31" s="19">
+        <v>4</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>25</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="15">
+        <v>42434</v>
+      </c>
+      <c r="D32" s="19">
+        <v>4</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>26</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="15">
+        <v>42434</v>
+      </c>
+      <c r="D33" s="19">
+        <v>4</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>27</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="15">
+        <v>42434</v>
+      </c>
+      <c r="D34" s="19">
+        <v>4</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>28</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="15">
+        <v>42434</v>
+      </c>
+      <c r="D35" s="19">
+        <v>4</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>29</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="15">
+        <v>42434</v>
+      </c>
+      <c r="D36" s="19">
+        <v>4</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I36" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>30</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="15">
+        <v>42434</v>
+      </c>
+      <c r="D37" s="19">
+        <v>4</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I37" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>31</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="15">
+        <v>42434</v>
+      </c>
+      <c r="D38" s="19">
+        <v>4</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>32</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="15">
+        <v>42434</v>
+      </c>
+      <c r="D39" s="19">
+        <v>4</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I39" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>33</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="15">
+        <v>42434</v>
+      </c>
+      <c r="D40" s="19">
+        <v>4</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>34</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="15">
+        <v>42434</v>
+      </c>
+      <c r="D41" s="19">
+        <v>4</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I41" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
+        <v>35</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="15">
+        <v>42434</v>
+      </c>
+      <c r="D42" s="23">
+        <v>2</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="I42" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
+        <v>36</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="15">
+        <v>42434</v>
+      </c>
+      <c r="D43" s="19">
+        <v>4</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F44" s="9"/>
+      <c r="I44" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documents/MR Report/MR Report - Project Management App.xlsx
+++ b/Documents/MR Report/MR Report - Project Management App.xlsx
@@ -587,14 +587,14 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -911,8 +911,8 @@
   </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,10 +929,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="20" t="s">
         <v>41</v>
       </c>
@@ -1675,16 +1675,16 @@
       <c r="E30" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="H30" s="25" t="s">
+      <c r="H30" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="I30" s="26" t="s">
+      <c r="I30" s="25" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1704,16 +1704,16 @@
       <c r="E31" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="H31" s="25" t="s">
+      <c r="H31" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="I31" s="26" t="s">
+      <c r="I31" s="25" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1733,16 +1733,16 @@
       <c r="E32" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="I32" s="26" t="s">
+      <c r="I32" s="25" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1762,16 +1762,16 @@
       <c r="E33" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="I33" s="25" t="s">
+      <c r="I33" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1791,16 +1791,16 @@
       <c r="E34" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="H34" s="25" t="s">
+      <c r="H34" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="I34" s="26" t="s">
+      <c r="I34" s="25" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1820,16 +1820,16 @@
       <c r="E35" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="H35" s="25" t="s">
+      <c r="H35" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="I35" s="26" t="s">
+      <c r="I35" s="25" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1849,16 +1849,16 @@
       <c r="E36" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="G36" s="25" t="s">
+      <c r="G36" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="H36" s="25" t="s">
+      <c r="H36" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="I36" s="26" t="s">
+      <c r="I36" s="25" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1878,16 +1878,16 @@
       <c r="E37" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="H37" s="25" t="s">
+      <c r="H37" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="I37" s="26" t="s">
+      <c r="I37" s="25" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1907,16 +1907,16 @@
       <c r="E38" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F38" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G38" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="H38" s="25" t="s">
+      <c r="H38" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="I38" s="26" t="s">
+      <c r="I38" s="25" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1936,16 +1936,16 @@
       <c r="E39" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G39" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="H39" s="25" t="s">
+      <c r="H39" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="I39" s="26" t="s">
+      <c r="I39" s="25" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1965,16 +1965,16 @@
       <c r="E40" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="G40" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="H40" s="25" t="s">
+      <c r="H40" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="I40" s="26" t="s">
+      <c r="I40" s="25" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1994,16 +1994,16 @@
       <c r="E41" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="I41" s="26" t="s">
+      <c r="I41" s="25" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2017,22 +2017,22 @@
       <c r="C42" s="15">
         <v>42434</v>
       </c>
-      <c r="D42" s="23">
-        <v>2</v>
+      <c r="D42" s="14">
+        <v>3</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="G42" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="H42" s="25" t="s">
+      <c r="H42" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="I42" s="26" t="s">
+      <c r="I42" s="25" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2052,16 +2052,16 @@
       <c r="E43" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="G43" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="H43" s="25" t="s">
+      <c r="H43" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="I43" s="26" t="s">
+      <c r="I43" s="25" t="s">
         <v>65</v>
       </c>
     </row>

--- a/Documents/MR Report/MR Report - Project Management App.xlsx
+++ b/Documents/MR Report/MR Report - Project Management App.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="140">
   <si>
     <t>ID</t>
   </si>
@@ -365,9 +365,6 @@
     <t>Runing the app on devices not specified in the test configuration</t>
   </si>
   <si>
-    <t>When leader is viwing the member list of the members in the project</t>
-  </si>
-  <si>
     <t>Member list activity</t>
   </si>
   <si>
@@ -432,6 +429,21 @@
   </si>
   <si>
     <t xml:space="preserve">Non Functional Requirement </t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed </t>
+  </si>
+  <si>
+    <t>The button to create a task button, is off the bounderies of the screen.</t>
+  </si>
+  <si>
+    <t>When leader is viewing the member list of the members in the project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a leader creates a task </t>
   </si>
 </sst>
 </file>
@@ -911,8 +923,8 @@
   </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,7 +1685,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>93</v>
@@ -1743,7 +1755,7 @@
         <v>96</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="63" x14ac:dyDescent="0.25">
@@ -1789,7 +1801,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>102</v>
@@ -1818,7 +1830,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>106</v>
@@ -1830,7 +1842,7 @@
         <v>107</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1850,10 +1862,10 @@
         <v>25</v>
       </c>
       <c r="F36" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>130</v>
       </c>
       <c r="H36" s="24" t="s">
         <v>92</v>
@@ -1879,10 +1891,10 @@
         <v>67</v>
       </c>
       <c r="F37" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="24" t="s">
         <v>127</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>128</v>
       </c>
       <c r="H37" s="24" t="s">
         <v>108</v>
@@ -1905,13 +1917,13 @@
         <v>4</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>109</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H38" s="24" t="s">
         <v>110</v>
@@ -1934,13 +1946,13 @@
         <v>4</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F39" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" s="24" t="s">
         <v>124</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>125</v>
       </c>
       <c r="H39" s="24" t="s">
         <v>111</v>
@@ -1963,13 +1975,13 @@
         <v>4</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F40" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>123</v>
       </c>
       <c r="H40" s="24" t="s">
         <v>112</v>
@@ -1995,10 +2007,10 @@
         <v>77</v>
       </c>
       <c r="F41" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="G41" s="24" t="s">
         <v>120</v>
-      </c>
-      <c r="G41" s="24" t="s">
-        <v>121</v>
       </c>
       <c r="H41" s="24" t="s">
         <v>113</v>
@@ -2021,13 +2033,13 @@
         <v>3</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F42" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="24" t="s">
         <v>118</v>
-      </c>
-      <c r="G42" s="24" t="s">
-        <v>119</v>
       </c>
       <c r="H42" s="24" t="s">
         <v>114</v>
@@ -2053,21 +2065,46 @@
         <v>76</v>
       </c>
       <c r="F43" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="G43" s="24" t="s">
-        <v>117</v>
-      </c>
       <c r="H43" s="24" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="I43" s="25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F44" s="9"/>
-      <c r="I44" s="13"/>
+    <row r="44" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
+        <v>37</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="16">
+        <v>42444</v>
+      </c>
+      <c r="D44" s="14">
+        <v>3</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documents/MR Report/MR Report - Project Management App.xlsx
+++ b/Documents/MR Report/MR Report - Project Management App.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="148">
   <si>
     <t>ID</t>
   </si>
@@ -66,10 +66,6 @@
     <t xml:space="preserve">Parsing a list in Python breaks the string. </t>
   </si>
   <si>
-    <t xml:space="preserve">Python delimits individual items in a list with commas but so does internal list.
- </t>
-  </si>
-  <si>
     <t>Change the delimiters to a commas to have the list parsed.</t>
   </si>
   <si>
@@ -334,10 +330,6 @@
     <t>Load the App</t>
   </si>
   <si>
-    <t xml:space="preserve">Delete unicode character that gets attached to the user data in the database.
-</t>
-  </si>
-  <si>
     <t>Delete Unicode character</t>
   </si>
   <si>
@@ -366,10 +358,6 @@
   </si>
   <si>
     <t>Member list activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Besides displaying the members' id, the client requested to have the name of the members as well, displayed. 
-</t>
   </si>
   <si>
     <t xml:space="preserve">Testing app in different devices </t>
@@ -389,27 +377,15 @@
     <t>Creating a task</t>
   </si>
   <si>
-    <t xml:space="preserve">The button to submit a task must be disable until the task required fields are filled out completely. 
-</t>
-  </si>
-  <si>
     <t>Checking email is valid</t>
   </si>
   <si>
     <t>The app must check if the email address given as the user address is valid or active. if it is not active it should be rejected</t>
   </si>
   <si>
-    <t xml:space="preserve">The app should be able to accommodate user who may have a problem seeing certain colors. the app should offer different theme that provide different color for the app.
-</t>
-  </si>
-  <si>
     <t>Message in the list task activity</t>
   </si>
   <si>
-    <t xml:space="preserve">There should a message informing the user that there is no task to display if the request to the database provides no task to display. 
-</t>
-  </si>
-  <si>
     <t>Tutorial screen and main screen</t>
   </si>
   <si>
@@ -444,6 +420,48 @@
   </si>
   <si>
     <t xml:space="preserve">When a leader creates a task </t>
+  </si>
+  <si>
+    <t>Unable to create task</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spinner does not contain members in project </t>
+  </si>
+  <si>
+    <t>ST.4.0</t>
+  </si>
+  <si>
+    <t>Adding members</t>
+  </si>
+  <si>
+    <t>When a leader adds members to a project</t>
+  </si>
+  <si>
+    <t>When adding members to project, sometimes name gets cut off in memberlist</t>
+  </si>
+  <si>
+    <t>Get rid of unicode characters from memberlist when users are displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unicode character in memberlist </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The button to submit a task must be disable until the task required fields are filled out completely. </t>
+  </si>
+  <si>
+    <t>Python delimits individual items in a list with commas but so does internal list.</t>
+  </si>
+  <si>
+    <t>Delete unicode character that gets attached to the user data in the database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should a message informing the user that there is no task to display if the request to the database provides no task to display. </t>
+  </si>
+  <si>
+    <t>The app should be able to accommodate user who may have a problem seeing certain colors. the app should offer different theme that provide different color for the app.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besides displaying the members' id, the client requested to have the name of the members as well, displayed. </t>
   </si>
 </sst>
 </file>
@@ -921,10 +939,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,19 +960,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="2"/>
@@ -962,10 +980,10 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="2"/>
@@ -973,10 +991,10 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -984,10 +1002,10 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="2"/>
@@ -1033,7 +1051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>1</v>
       </c>
@@ -1047,19 +1065,19 @@
         <v>1</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="I8" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="63" x14ac:dyDescent="0.25">
@@ -1076,22 +1094,22 @@
         <v>4</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="I9" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>3</v>
       </c>
@@ -1105,7 +1123,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>13</v>
@@ -1114,13 +1132,13 @@
         <v>14</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>4</v>
       </c>
@@ -1134,19 +1152,19 @@
         <v>2</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="I11" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
@@ -1163,19 +1181,19 @@
         <v>2</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="H12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="I12" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.25">
@@ -1192,19 +1210,19 @@
         <v>2</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="I13" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
@@ -1212,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="15">
         <v>42424</v>
@@ -1221,22 +1239,22 @@
         <v>4</v>
       </c>
       <c r="E14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="I14" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>8</v>
       </c>
@@ -1250,22 +1268,22 @@
         <v>3</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>9</v>
       </c>
@@ -1279,22 +1297,22 @@
         <v>3</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="H16" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>52</v>
-      </c>
       <c r="I16" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>10</v>
       </c>
@@ -1308,22 +1326,22 @@
         <v>1</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="H17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>11</v>
       </c>
@@ -1337,27 +1355,27 @@
         <v>3</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>56</v>
-      </c>
       <c r="H18" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>12</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="15">
         <v>42429</v>
@@ -1366,27 +1384,27 @@
         <v>4</v>
       </c>
       <c r="E19" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="G19" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="I19" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>13</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="15">
         <v>42429</v>
@@ -1395,27 +1413,27 @@
         <v>4</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>14</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="15">
         <v>42429</v>
@@ -1424,27 +1442,27 @@
         <v>2</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>15</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="15">
         <v>42429</v>
@@ -1453,27 +1471,27 @@
         <v>1</v>
       </c>
       <c r="E22" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="G22" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="H22" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="I22" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>16</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="15">
         <v>42429</v>
@@ -1482,27 +1500,27 @@
         <v>2</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="I23" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>17</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="15">
         <v>42430</v>
@@ -1511,27 +1529,27 @@
         <v>2</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="I24" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>18</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="15">
         <v>42430</v>
@@ -1540,27 +1558,27 @@
         <v>2</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F25" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="I25" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>19</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="15">
         <v>42430</v>
@@ -1569,27 +1587,27 @@
         <v>2</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F26" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>20</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="15">
         <v>42430</v>
@@ -1598,22 +1616,22 @@
         <v>1</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F27" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="H27" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="I27" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>21</v>
       </c>
@@ -1627,27 +1645,27 @@
         <v>2</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>88</v>
-      </c>
       <c r="H28" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>22</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="15">
         <v>42431</v>
@@ -1656,27 +1674,27 @@
         <v>3</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>90</v>
-      </c>
       <c r="H29" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>23</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="15">
         <v>42434</v>
@@ -1685,27 +1703,27 @@
         <v>4</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F30" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="24" t="s">
-        <v>94</v>
-      </c>
       <c r="H30" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I30" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>24</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" s="15">
         <v>42434</v>
@@ -1714,27 +1732,27 @@
         <v>4</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G31" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="H31" s="24" t="s">
-        <v>96</v>
-      </c>
       <c r="I31" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>25</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="15">
         <v>42434</v>
@@ -1743,27 +1761,27 @@
         <v>4</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F32" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="G32" s="24" t="s">
-        <v>99</v>
-      </c>
       <c r="H32" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>26</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" s="15">
         <v>42434</v>
@@ -1772,27 +1790,27 @@
         <v>4</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F33" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="G33" s="24" t="s">
-        <v>101</v>
-      </c>
       <c r="H33" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>27</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="15">
         <v>42434</v>
@@ -1801,27 +1819,27 @@
         <v>4</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F34" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="H34" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="H34" s="24" t="s">
-        <v>104</v>
-      </c>
       <c r="I34" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>28</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="15">
         <v>42434</v>
@@ -1830,27 +1848,27 @@
         <v>4</v>
       </c>
       <c r="E35" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I35" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="F35" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="I35" s="25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>29</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" s="15">
         <v>42434</v>
@@ -1859,27 +1877,27 @@
         <v>4</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>30</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="15">
         <v>42434</v>
@@ -1888,27 +1906,27 @@
         <v>4</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>31</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="15">
         <v>42434</v>
@@ -1917,27 +1935,27 @@
         <v>4</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I38" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>32</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="15">
         <v>42434</v>
@@ -1946,27 +1964,27 @@
         <v>4</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I39" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>33</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" s="15">
         <v>42434</v>
@@ -1975,19 +1993,19 @@
         <v>4</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I40" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
@@ -1995,7 +2013,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="15">
         <v>42434</v>
@@ -2004,19 +2022,19 @@
         <v>4</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
@@ -2024,7 +2042,7 @@
         <v>35</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42" s="15">
         <v>42434</v>
@@ -2033,27 +2051,27 @@
         <v>3</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>36</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43" s="15">
         <v>42434</v>
@@ -2062,22 +2080,22 @@
         <v>4</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>37</v>
       </c>
@@ -2091,19 +2109,106 @@
         <v>3</v>
       </c>
       <c r="E44" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="H44" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G44" s="24" t="s">
+      <c r="I44" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
+        <v>38</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="15">
+        <v>42446</v>
+      </c>
+      <c r="D45" s="19">
+        <v>4</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="G45" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="I44" s="13" t="s">
-        <v>65</v>
+      <c r="H45" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I45" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
+        <v>39</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="15">
+        <v>42446</v>
+      </c>
+      <c r="D46" s="19">
+        <v>4</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
+        <v>40</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="15">
+        <v>42451</v>
+      </c>
+      <c r="D47" s="14">
+        <v>3</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I47" s="25" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/MR Report/MR Report - Project Management App.xlsx
+++ b/Documents/MR Report/MR Report - Project Management App.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="185">
   <si>
     <t>ID</t>
   </si>
@@ -446,9 +446,6 @@
     <t xml:space="preserve">Unicode character in memberlist </t>
   </si>
   <si>
-    <t xml:space="preserve">The button to submit a task must be disable until the task required fields are filled out completely. </t>
-  </si>
-  <si>
     <t>Python delimits individual items in a list with commas but so does internal list.</t>
   </si>
   <si>
@@ -462,6 +459,121 @@
   </si>
   <si>
     <t xml:space="preserve">Besides displaying the members' id, the client requested to have the name of the members as well, displayed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The button to create a task must be disable until the task required fields are filled out completely. </t>
+  </si>
+  <si>
+    <t>ST 3.0 and ST 5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Handle duplicates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can sometimes find duplicate tasks or projects. Non-vital UI bug
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creating a task or creating a project </t>
+  </si>
+  <si>
+    <t>Condense all groupings of 3 or more -- into "--"</t>
+  </si>
+  <si>
+    <t>Database error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removing members </t>
+  </si>
+  <si>
+    <t>Viewing members' progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When removing member, member progress may open if you lift finger off it </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if user is leader when removing members </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hector </t>
+  </si>
+  <si>
+    <t>View members' progress</t>
+  </si>
+  <si>
+    <t>Update progressactivity to show current progress in projectview</t>
+  </si>
+  <si>
+    <t>Removing creates extra delimiters. This is not a super important bug, but it does create a GUI issue.</t>
+  </si>
+  <si>
+    <t>The member progress activity screen when opened present 2 toolbars.</t>
+  </si>
+  <si>
+    <t>Removing members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member progress may open </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spaces cant be used in the task name field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a task </t>
+  </si>
+  <si>
+    <t>Members' view progress</t>
+  </si>
+  <si>
+    <t>Center header information above the graph</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unicode characters are still in the progress screens </t>
+  </si>
+  <si>
+    <t xml:space="preserve">View any of the progress screens </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indent the precreated words in  task name, task discription, and project name field. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"+" in screens </t>
+  </si>
+  <si>
+    <t>the "+" button is present in screens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The No task in this Project screen </t>
+  </si>
+  <si>
+    <t>ST 5.0 and ST 14.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST 8.0, ST 15.0, and ST 16.0 </t>
+  </si>
+  <si>
+    <t>ST 15.0 and ST 16.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST 15.0 and ST 16.0 </t>
+  </si>
+  <si>
+    <t>ST 14.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memberc can create a task and remove members </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a task or Remove a member </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Create task and Remove members</t>
   </si>
 </sst>
 </file>
@@ -479,6 +591,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -566,7 +679,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -625,6 +738,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -939,10 +1061,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,7 +1173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>1</v>
       </c>
@@ -1158,7 +1280,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>16</v>
@@ -1854,7 +1976,7 @@
         <v>104</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H35" s="24" t="s">
         <v>105</v>
@@ -1912,7 +2034,7 @@
         <v>121</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H37" s="24" t="s">
         <v>106</v>
@@ -1941,7 +2063,7 @@
         <v>107</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H38" s="24" t="s">
         <v>108</v>
@@ -1979,7 +2101,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>33</v>
       </c>
@@ -1999,7 +2121,7 @@
         <v>118</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H40" s="24" t="s">
         <v>110</v>
@@ -2086,7 +2208,7 @@
         <v>113</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H43" s="24" t="s">
         <v>132</v>
@@ -2182,7 +2304,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>40</v>
       </c>
@@ -2208,6 +2330,354 @@
         <v>133</v>
       </c>
       <c r="I47" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <v>41</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="15">
+        <v>42451</v>
+      </c>
+      <c r="D48" s="19">
+        <v>4</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="I48" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>42</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="16">
+        <v>42451</v>
+      </c>
+      <c r="D49" s="27">
+        <v>4</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="I49" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>43</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="16">
+        <v>42452</v>
+      </c>
+      <c r="D50" s="27">
+        <v>4</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="I50" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>44</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="16">
+        <v>42423</v>
+      </c>
+      <c r="D51" s="27">
+        <v>4</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G51" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="I51" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>45</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="28">
+        <v>42424</v>
+      </c>
+      <c r="D52" s="29">
+        <v>4</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="I52" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>46</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="28">
+        <v>42425</v>
+      </c>
+      <c r="D53" s="29">
+        <v>4</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>47</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="28">
+        <v>42425</v>
+      </c>
+      <c r="D54" s="29">
+        <v>4</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="H54" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="I54" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>48</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="28">
+        <v>42425</v>
+      </c>
+      <c r="D55" s="29">
+        <v>4</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>49</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="28">
+        <v>42425</v>
+      </c>
+      <c r="D56" s="29">
+        <v>4</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="H56" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="I56" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>50</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="28">
+        <v>42425</v>
+      </c>
+      <c r="D57" s="29">
+        <v>4</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="H57" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="I57" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <v>51</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="28">
+        <v>42425</v>
+      </c>
+      <c r="D58" s="29">
+        <v>4</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="H58" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="I58" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <v>52</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="28">
+        <v>42425</v>
+      </c>
+      <c r="D59" s="29">
+        <v>4</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="I59" s="24" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2215,8 +2685,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="64" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documents/MR Report/MR Report - Project Management App.xlsx
+++ b/Documents/MR Report/MR Report - Project Management App.xlsx
@@ -736,9 +736,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -747,6 +744,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1063,8 +1063,8 @@
   </sheetPr>
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,10 +1081,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="20" t="s">
         <v>40</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>103</v>
       </c>
       <c r="I34" s="25" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1982,7 +1982,7 @@
         <v>105</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2214,7 +2214,7 @@
         <v>132</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2243,7 +2243,7 @@
         <v>133</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -2272,7 +2272,7 @@
         <v>138</v>
       </c>
       <c r="I45" s="25" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -2330,7 +2330,7 @@
         <v>133</v>
       </c>
       <c r="I47" s="25" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="63" x14ac:dyDescent="0.25">
@@ -2355,7 +2355,7 @@
       <c r="G48" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="H48" s="11" t="s">
         <v>151</v>
       </c>
       <c r="I48" s="25" t="s">
@@ -2372,7 +2372,7 @@
       <c r="C49" s="16">
         <v>42451</v>
       </c>
-      <c r="D49" s="27">
+      <c r="D49" s="26">
         <v>4</v>
       </c>
       <c r="E49" s="11" t="s">
@@ -2401,7 +2401,7 @@
       <c r="C50" s="16">
         <v>42452</v>
       </c>
-      <c r="D50" s="27">
+      <c r="D50" s="26">
         <v>4</v>
       </c>
       <c r="E50" s="11" t="s">
@@ -2430,7 +2430,7 @@
       <c r="C51" s="16">
         <v>42423</v>
       </c>
-      <c r="D51" s="27">
+      <c r="D51" s="26">
         <v>4</v>
       </c>
       <c r="E51" s="11" t="s">
@@ -2456,10 +2456,10 @@
       <c r="B52" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C52" s="28">
+      <c r="C52" s="27">
         <v>42424</v>
       </c>
-      <c r="D52" s="29">
+      <c r="D52" s="28">
         <v>4</v>
       </c>
       <c r="E52" s="24" t="s">
@@ -2485,10 +2485,10 @@
       <c r="B53" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="28">
+      <c r="C53" s="27">
         <v>42425</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="28">
         <v>4</v>
       </c>
       <c r="E53" s="24" t="s">
@@ -2504,7 +2504,7 @@
         <v>155</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2514,10 +2514,10 @@
       <c r="B54" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="28">
+      <c r="C54" s="27">
         <v>42425</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="28">
         <v>4</v>
       </c>
       <c r="E54" s="24" t="s">
@@ -2533,7 +2533,7 @@
         <v>166</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -2543,10 +2543,10 @@
       <c r="B55" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="28">
+      <c r="C55" s="27">
         <v>42425</v>
       </c>
-      <c r="D55" s="29">
+      <c r="D55" s="28">
         <v>4</v>
       </c>
       <c r="E55" s="24" t="s">
@@ -2572,10 +2572,10 @@
       <c r="B56" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="28">
+      <c r="C56" s="27">
         <v>42425</v>
       </c>
-      <c r="D56" s="29">
+      <c r="D56" s="28">
         <v>4</v>
       </c>
       <c r="E56" s="24" t="s">
@@ -2591,7 +2591,7 @@
         <v>171</v>
       </c>
       <c r="I56" s="24" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
@@ -2601,10 +2601,10 @@
       <c r="B57" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="28">
+      <c r="C57" s="27">
         <v>42425</v>
       </c>
-      <c r="D57" s="29">
+      <c r="D57" s="28">
         <v>4</v>
       </c>
       <c r="E57" s="24" t="s">
@@ -2630,10 +2630,10 @@
       <c r="B58" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="28">
+      <c r="C58" s="27">
         <v>42425</v>
       </c>
-      <c r="D58" s="29">
+      <c r="D58" s="28">
         <v>4</v>
       </c>
       <c r="E58" s="24" t="s">
@@ -2659,10 +2659,10 @@
       <c r="B59" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="28">
+      <c r="C59" s="27">
         <v>42425</v>
       </c>
-      <c r="D59" s="29">
+      <c r="D59" s="28">
         <v>4</v>
       </c>
       <c r="E59" s="24" t="s">

--- a/Documents/MR Report/MR Report - Project Management App.xlsx
+++ b/Documents/MR Report/MR Report - Project Management App.xlsx
@@ -1063,8 +1063,8 @@
   </sheetPr>
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,7 +2011,7 @@
         <v>91</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2475,7 +2475,7 @@
         <v>155</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Documents/MR Report/MR Report - Project Management App.xlsx
+++ b/Documents/MR Report/MR Report - Project Management App.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="188">
   <si>
     <t>ID</t>
   </si>
@@ -574,6 +574,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Create task and Remove members</t>
+  </si>
+  <si>
+    <t>Main Menu button now takes user to Theme</t>
+  </si>
+  <si>
+    <t>Click the main menu button</t>
+  </si>
+  <si>
+    <t>Main Menu Button</t>
   </si>
 </sst>
 </file>
@@ -1061,10 +1070,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2679,6 +2688,35 @@
       </c>
       <c r="I59" s="24" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
+        <v>53</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="15">
+        <v>42463</v>
+      </c>
+      <c r="D60" s="28">
+        <v>4</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="I60" s="24" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/MR Report/MR Report - Project Management App.xlsx
+++ b/Documents/MR Report/MR Report - Project Management App.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="192">
   <si>
     <t>ID</t>
   </si>
@@ -583,6 +583,18 @@
   </si>
   <si>
     <t>Main Menu Button</t>
+  </si>
+  <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a task with two or more words </t>
+  </si>
+  <si>
+    <t>When a task is created with more than two words, the action of submitting a task will not update</t>
+  </si>
+  <si>
+    <t>ST 5.0, ST. 7.0 &amp; ST. 8.0</t>
   </si>
 </sst>
 </file>
@@ -688,7 +700,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -756,6 +768,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1070,10 +1088,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2352,8 +2370,8 @@
       <c r="C48" s="15">
         <v>42451</v>
       </c>
-      <c r="D48" s="19">
-        <v>4</v>
+      <c r="D48" s="14">
+        <v>3</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>148</v>
@@ -2439,8 +2457,8 @@
       <c r="C51" s="16">
         <v>42423</v>
       </c>
-      <c r="D51" s="26">
-        <v>4</v>
+      <c r="D51" s="31">
+        <v>3</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>181</v>
@@ -2629,7 +2647,7 @@
         <v>166</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2671,8 +2689,8 @@
       <c r="C59" s="27">
         <v>42425</v>
       </c>
-      <c r="D59" s="28">
-        <v>4</v>
+      <c r="D59" s="30">
+        <v>3</v>
       </c>
       <c r="E59" s="24" t="s">
         <v>177</v>
@@ -2716,7 +2734,36 @@
         <v>186</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>129</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
+        <v>54</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="15">
+        <v>42104</v>
+      </c>
+      <c r="D61" s="28">
+        <v>2</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="I61" s="24" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/MR Report/MR Report - Project Management App.xlsx
+++ b/Documents/MR Report/MR Report - Project Management App.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="193">
   <si>
     <t>ID</t>
   </si>
@@ -595,6 +595,9 @@
   </si>
   <si>
     <t>ST 5.0, ST. 7.0 &amp; ST. 8.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed. </t>
   </si>
 </sst>
 </file>
@@ -766,14 +769,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1090,8 +1093,8 @@
   </sheetPr>
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,10 +1111,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="20" t="s">
         <v>40</v>
       </c>
@@ -1864,7 +1867,7 @@
         <v>91</v>
       </c>
       <c r="I30" s="25" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -2457,7 +2460,7 @@
       <c r="C51" s="16">
         <v>42423</v>
       </c>
-      <c r="D51" s="31">
+      <c r="D51" s="30">
         <v>3</v>
       </c>
       <c r="E51" s="11" t="s">
@@ -2589,7 +2592,7 @@
         <v>155</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -2689,7 +2692,7 @@
       <c r="C59" s="27">
         <v>42425</v>
       </c>
-      <c r="D59" s="30">
+      <c r="D59" s="29">
         <v>3</v>
       </c>
       <c r="E59" s="24" t="s">
@@ -2747,8 +2750,8 @@
       <c r="C61" s="15">
         <v>42104</v>
       </c>
-      <c r="D61" s="28">
-        <v>2</v>
+      <c r="D61" s="29">
+        <v>3</v>
       </c>
       <c r="E61" s="24" t="s">
         <v>191</v>
@@ -2763,7 +2766,7 @@
         <v>189</v>
       </c>
       <c r="I61" s="24" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/MR Report/MR Report - Project Management App.xlsx
+++ b/Documents/MR Report/MR Report - Project Management App.xlsx
@@ -597,7 +597,7 @@
     <t>ST 5.0, ST. 7.0 &amp; ST. 8.0</t>
   </si>
   <si>
-    <t xml:space="preserve">Fixed. </t>
+    <t xml:space="preserve">Resolved </t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1094,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1867,7 +1867,7 @@
         <v>91</v>
       </c>
       <c r="I30" s="25" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1925,7 +1925,7 @@
         <v>95</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1954,7 +1954,7 @@
         <v>91</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>64</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2070,7 +2070,7 @@
         <v>106</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>64</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2331,7 +2331,7 @@
         <v>138</v>
       </c>
       <c r="I46" s="25" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2389,7 +2389,7 @@
         <v>151</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2534,7 +2534,7 @@
         <v>155</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2563,7 +2563,7 @@
         <v>166</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -2621,7 +2621,7 @@
         <v>171</v>
       </c>
       <c r="I56" s="24" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
@@ -2650,7 +2650,7 @@
         <v>166</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2766,7 +2766,7 @@
         <v>189</v>
       </c>
       <c r="I61" s="24" t="s">
-        <v>192</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/MR Report/MR Report - Project Management App.xlsx
+++ b/Documents/MR Report/MR Report - Project Management App.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="204">
   <si>
     <t>ID</t>
   </si>
@@ -407,9 +407,6 @@
     <t xml:space="preserve">Non Functional Requirement </t>
   </si>
   <si>
-    <t>Fixed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fixed </t>
   </si>
   <si>
@@ -598,13 +595,49 @@
   </si>
   <si>
     <t xml:space="preserve">Resolved </t>
+  </si>
+  <si>
+    <t>Professor Pham</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Version Number</t>
+  </si>
+  <si>
+    <t>Add the version number to the app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website message </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add a happy message when member accepts invatations </t>
+  </si>
+  <si>
+    <t>Invite a member</t>
+  </si>
+  <si>
+    <t>Leader remove a member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the user is a leader remove a member should work </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A and Android Design </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolved by the use of error handeling  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A, if user use an invalid email user wont be able to accept emails </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,6 +683,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -703,7 +742,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -773,6 +812,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1091,10 +1133,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,10 +1153,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="20" t="s">
         <v>40</v>
       </c>
@@ -1310,7 +1352,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>16</v>
@@ -1867,7 +1909,7 @@
         <v>91</v>
       </c>
       <c r="I30" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1896,7 +1938,7 @@
         <v>95</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>64</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1925,7 +1967,7 @@
         <v>95</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1954,7 +1996,7 @@
         <v>91</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2006,7 +2048,7 @@
         <v>104</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H35" s="24" t="s">
         <v>105</v>
@@ -2041,7 +2083,7 @@
         <v>91</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2064,13 +2106,13 @@
         <v>121</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H37" s="24" t="s">
         <v>106</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2093,16 +2135,16 @@
         <v>107</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H38" s="24" t="s">
         <v>108</v>
       </c>
       <c r="I38" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="126" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>32</v>
       </c>
@@ -2127,11 +2169,11 @@
       <c r="H39" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="I39" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>33</v>
       </c>
@@ -2151,13 +2193,13 @@
         <v>118</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H40" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="I40" s="25" t="s">
-        <v>64</v>
+      <c r="I40" s="24" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
@@ -2186,7 +2228,7 @@
         <v>111</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>64</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
@@ -2215,7 +2257,7 @@
         <v>112</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>64</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2238,10 +2280,10 @@
         <v>113</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I43" s="25" t="s">
         <v>85</v>
@@ -2267,10 +2309,10 @@
         <v>118</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I44" s="13" t="s">
         <v>85</v>
@@ -2290,16 +2332,16 @@
         <v>4</v>
       </c>
       <c r="E45" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="G45" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="H45" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>138</v>
       </c>
       <c r="I45" s="25" t="s">
         <v>85</v>
@@ -2319,19 +2361,19 @@
         <v>4</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I46" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2351,13 +2393,13 @@
         <v>127</v>
       </c>
       <c r="F47" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G47" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="G47" s="24" t="s">
-        <v>135</v>
-      </c>
       <c r="H47" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I47" s="25" t="s">
         <v>85</v>
@@ -2377,19 +2419,19 @@
         <v>3</v>
       </c>
       <c r="E48" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="F48" s="24" t="s">
+      <c r="G48" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="H48" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="H48" s="11" t="s">
-        <v>151</v>
-      </c>
       <c r="I48" s="25" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2406,19 +2448,19 @@
         <v>4</v>
       </c>
       <c r="E49" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="H49" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F49" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="G49" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>154</v>
-      </c>
       <c r="I49" s="24" t="s">
-        <v>64</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2435,19 +2477,19 @@
         <v>4</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>64</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2464,19 +2506,19 @@
         <v>3</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2484,7 +2526,7 @@
         <v>45</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C52" s="27">
         <v>42424</v>
@@ -2493,19 +2535,19 @@
         <v>4</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2522,19 +2564,19 @@
         <v>4</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F53" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G53" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G53" s="24" t="s">
-        <v>160</v>
-      </c>
       <c r="H53" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2557,13 +2599,13 @@
         <v>118</v>
       </c>
       <c r="G54" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H54" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="H54" s="24" t="s">
-        <v>166</v>
-      </c>
       <c r="I54" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -2580,19 +2622,19 @@
         <v>4</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F55" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G55" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="G55" s="24" t="s">
-        <v>168</v>
-      </c>
       <c r="H55" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -2609,19 +2651,19 @@
         <v>4</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F56" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G56" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="G56" s="24" t="s">
+      <c r="H56" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="H56" s="24" t="s">
-        <v>171</v>
-      </c>
       <c r="I56" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
@@ -2644,13 +2686,13 @@
         <v>118</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2667,19 +2709,19 @@
         <v>4</v>
       </c>
       <c r="E58" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="F58" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="F58" s="24" t="s">
+      <c r="G58" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="G58" s="24" t="s">
+      <c r="H58" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="H58" s="24" t="s">
-        <v>176</v>
-      </c>
       <c r="I58" s="24" t="s">
-        <v>64</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2696,19 +2738,19 @@
         <v>3</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G59" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="H59" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="H59" s="24" t="s">
-        <v>183</v>
-      </c>
       <c r="I59" s="24" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -2725,19 +2767,19 @@
         <v>4</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F60" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="I60" s="24" t="s">
         <v>187</v>
-      </c>
-      <c r="G60" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="I60" s="24" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="63" x14ac:dyDescent="0.25">
@@ -2754,20 +2796,122 @@
         <v>3</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F61" s="24" t="s">
         <v>118</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I61" s="24" t="s">
         <v>63</v>
       </c>
+    </row>
+    <row r="62" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
+        <v>55</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C62" s="15">
+        <v>42485</v>
+      </c>
+      <c r="D62" s="28">
+        <v>4</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="G62" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="H62" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="I62" s="24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="11">
+        <v>56</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="15">
+        <v>42485</v>
+      </c>
+      <c r="D63" s="29">
+        <v>3</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I63" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
+        <v>57</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" s="15">
+        <v>42485</v>
+      </c>
+      <c r="D64" s="28">
+        <v>4</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G64" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="H64" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I64" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="15"/>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="15"/>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documents/MR Report/MR Report - Project Management App.xlsx
+++ b/Documents/MR Report/MR Report - Project Management App.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="233">
   <si>
     <t>ID</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t xml:space="preserve">Resolved. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active </t>
   </si>
   <si>
     <t xml:space="preserve">The Login button has the wrong text on the button </t>
@@ -631,6 +628,96 @@
   </si>
   <si>
     <t xml:space="preserve">N/A, if user use an invalid email user wont be able to accept emails </t>
+  </si>
+  <si>
+    <t>ST 1.0 &amp; ST 20.0</t>
+  </si>
+  <si>
+    <t>When you first register, the profile page will apprear but there will be n's in the fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a new account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active </t>
+  </si>
+  <si>
+    <t>ST 20.0</t>
+  </si>
+  <si>
+    <t>Spaces cant be used in the profile first name field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter your first name in the first name field in the profile screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">n's in the profile screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spaces are not alowed in the profile screen </t>
+  </si>
+  <si>
+    <t>When a project leader removes a member he or she will have to go back to the main menu to refresh the list</t>
+  </si>
+  <si>
+    <t>Remove a member from the project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When creating a task, the assign member to the task dropdown list need a place holder to inform the leader that this is where you choose a member </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a task in a project with multiple members </t>
+  </si>
+  <si>
+    <t>ST 17.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Messaging Screen </t>
+  </si>
+  <si>
+    <t>Messaging Screen need a bigger text box so user can view the typed input</t>
+  </si>
+  <si>
+    <t>Message a member of the group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inbox list </t>
+  </si>
+  <si>
+    <t>Project Leader is not automatically added as a member of the project</t>
+  </si>
+  <si>
+    <t>Create a project then let a member try to message the leader</t>
+  </si>
+  <si>
+    <t>Leader can create a task without assigning a due date because it assigns the previous created tasks due date</t>
+  </si>
+  <si>
+    <t>Create a task with a due date, then create another one without changing the due date</t>
+  </si>
+  <si>
+    <t>ST 12.0 and ST 13.0</t>
+  </si>
+  <si>
+    <t>Project invitations</t>
+  </si>
+  <si>
+    <t>Members can accept a project invitation twice and the member will be displayed twice on the member list view</t>
+  </si>
+  <si>
+    <t>Project leader sends an invatation to member, member clicks the link twice</t>
+  </si>
+  <si>
+    <t>ST 13.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepting Invitations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The message to members when they accept the invitation should be  a lager size to really inform the member that he or she has been added to the intended project </t>
+  </si>
+  <si>
+    <t>Project leader sends an invatation to member, member clicks the link and be directed to a webpage with a tiny “Successfully joined the project!” text</t>
   </si>
 </sst>
 </file>
@@ -1133,10 +1220,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,7 +1439,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>16</v>
@@ -1375,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>26</v>
@@ -1404,7 +1491,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>17</v>
@@ -1613,7 +1700,7 @@
         <v>60</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>62</v>
@@ -1639,13 +1726,13 @@
         <v>30</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>63</v>
@@ -1665,19 +1752,19 @@
         <v>1</v>
       </c>
       <c r="E22" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="G22" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="H22" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="I22" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1697,16 +1784,16 @@
         <v>25</v>
       </c>
       <c r="F23" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>73</v>
-      </c>
       <c r="I23" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1723,16 +1810,16 @@
         <v>2</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F24" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="I24" s="13" t="s">
         <v>63</v>
@@ -1752,19 +1839,19 @@
         <v>2</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F25" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>81</v>
-      </c>
       <c r="I25" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1781,19 +1868,19 @@
         <v>2</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F26" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1810,19 +1897,19 @@
         <v>1</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="H27" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="I27" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1842,16 +1929,16 @@
         <v>23</v>
       </c>
       <c r="F28" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>87</v>
-      </c>
       <c r="H28" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1868,19 +1955,19 @@
         <v>3</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F29" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>89</v>
-      </c>
       <c r="H29" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1888,7 +1975,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="15">
         <v>42434</v>
@@ -1897,19 +1984,19 @@
         <v>4</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F30" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="24" t="s">
-        <v>93</v>
-      </c>
       <c r="H30" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I30" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1917,7 +2004,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" s="15">
         <v>42434</v>
@@ -1929,16 +2016,16 @@
         <v>59</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G31" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="H31" s="24" t="s">
-        <v>95</v>
-      </c>
       <c r="I31" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1946,7 +2033,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" s="15">
         <v>42434</v>
@@ -1958,16 +2045,16 @@
         <v>59</v>
       </c>
       <c r="F32" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="G32" s="24" t="s">
-        <v>98</v>
-      </c>
       <c r="H32" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1975,7 +2062,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" s="15">
         <v>42434</v>
@@ -1987,16 +2074,16 @@
         <v>24</v>
       </c>
       <c r="F33" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="G33" s="24" t="s">
-        <v>100</v>
-      </c>
       <c r="H33" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2004,7 +2091,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="15">
         <v>42434</v>
@@ -2013,19 +2100,19 @@
         <v>4</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F34" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="H34" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H34" s="24" t="s">
-        <v>103</v>
-      </c>
       <c r="I34" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2033,7 +2120,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="15">
         <v>42434</v>
@@ -2042,19 +2129,19 @@
         <v>4</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F35" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="H35" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>105</v>
-      </c>
       <c r="I35" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2062,7 +2149,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" s="15">
         <v>42434</v>
@@ -2074,16 +2161,16 @@
         <v>24</v>
       </c>
       <c r="F36" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G36" s="24" t="s">
-        <v>123</v>
-      </c>
       <c r="H36" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2091,7 +2178,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" s="15">
         <v>42434</v>
@@ -2100,19 +2187,19 @@
         <v>4</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2120,7 +2207,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="15">
         <v>42434</v>
@@ -2129,19 +2216,19 @@
         <v>4</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F38" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G38" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="H38" s="24" t="s">
-        <v>108</v>
-      </c>
       <c r="I38" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="126" x14ac:dyDescent="0.25">
@@ -2149,7 +2236,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39" s="15">
         <v>42434</v>
@@ -2158,19 +2245,19 @@
         <v>4</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F39" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="G39" s="24" t="s">
-        <v>120</v>
-      </c>
       <c r="H39" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="63" x14ac:dyDescent="0.25">
@@ -2178,7 +2265,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C40" s="15">
         <v>42434</v>
@@ -2187,19 +2274,19 @@
         <v>4</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
@@ -2207,7 +2294,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" s="15">
         <v>42434</v>
@@ -2216,19 +2303,19 @@
         <v>4</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F41" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="G41" s="24" t="s">
-        <v>117</v>
-      </c>
       <c r="H41" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
@@ -2236,7 +2323,7 @@
         <v>35</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C42" s="15">
         <v>42434</v>
@@ -2245,19 +2332,19 @@
         <v>3</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F42" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="24" t="s">
-        <v>115</v>
-      </c>
       <c r="H42" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2265,7 +2352,7 @@
         <v>36</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43" s="15">
         <v>42434</v>
@@ -2274,19 +2361,19 @@
         <v>4</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2303,19 +2390,19 @@
         <v>3</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -2332,19 +2419,19 @@
         <v>4</v>
       </c>
       <c r="E45" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F45" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="G45" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H45" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="G45" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>137</v>
-      </c>
       <c r="I45" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -2361,19 +2448,19 @@
         <v>4</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I46" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2390,19 +2477,19 @@
         <v>3</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F47" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="G47" s="24" t="s">
-        <v>134</v>
-      </c>
       <c r="H47" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I47" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="63" x14ac:dyDescent="0.25">
@@ -2419,19 +2506,19 @@
         <v>3</v>
       </c>
       <c r="E48" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="F48" s="24" t="s">
+      <c r="G48" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="H48" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="H48" s="11" t="s">
-        <v>150</v>
-      </c>
       <c r="I48" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2448,19 +2535,19 @@
         <v>4</v>
       </c>
       <c r="E49" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="H49" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F49" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="G49" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="I49" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2477,19 +2564,19 @@
         <v>4</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2506,19 +2593,19 @@
         <v>3</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2526,7 +2613,7 @@
         <v>45</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C52" s="27">
         <v>42424</v>
@@ -2535,19 +2622,19 @@
         <v>4</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2564,19 +2651,19 @@
         <v>4</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F53" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G53" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="G53" s="24" t="s">
-        <v>159</v>
-      </c>
       <c r="H53" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2593,19 +2680,19 @@
         <v>4</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G54" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="H54" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="H54" s="24" t="s">
-        <v>165</v>
-      </c>
       <c r="I54" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -2622,19 +2709,19 @@
         <v>4</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F55" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="G55" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="G55" s="24" t="s">
-        <v>167</v>
-      </c>
       <c r="H55" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -2651,19 +2738,19 @@
         <v>4</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F56" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G56" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="G56" s="24" t="s">
+      <c r="H56" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="H56" s="24" t="s">
-        <v>170</v>
-      </c>
       <c r="I56" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
@@ -2680,19 +2767,19 @@
         <v>4</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2709,19 +2796,19 @@
         <v>4</v>
       </c>
       <c r="E58" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="F58" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="F58" s="24" t="s">
+      <c r="G58" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="G58" s="24" t="s">
+      <c r="H58" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="H58" s="24" t="s">
-        <v>175</v>
-      </c>
       <c r="I58" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2738,19 +2825,19 @@
         <v>3</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G59" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="H59" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="H59" s="24" t="s">
-        <v>182</v>
-      </c>
       <c r="I59" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -2767,19 +2854,19 @@
         <v>4</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F60" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="I60" s="24" t="s">
         <v>186</v>
-      </c>
-      <c r="G60" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="I60" s="24" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="63" x14ac:dyDescent="0.25">
@@ -2796,16 +2883,16 @@
         <v>3</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I61" s="24" t="s">
         <v>63</v>
@@ -2816,7 +2903,7 @@
         <v>55</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C62" s="15">
         <v>42485</v>
@@ -2825,19 +2912,19 @@
         <v>4</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F62" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G62" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="G62" s="24" t="s">
+      <c r="H62" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="H62" s="31" t="s">
-        <v>198</v>
-      </c>
       <c r="I62" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -2845,7 +2932,7 @@
         <v>56</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C63" s="15">
         <v>42485</v>
@@ -2854,19 +2941,19 @@
         <v>3</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F63" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="G63" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="G63" s="24" t="s">
-        <v>200</v>
-      </c>
       <c r="H63" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I63" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -2874,7 +2961,7 @@
         <v>57</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C64" s="15">
         <v>42485</v>
@@ -2883,35 +2970,281 @@
         <v>4</v>
       </c>
       <c r="E64" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F64" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="F64" s="24" t="s">
+      <c r="G64" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="G64" s="24" t="s">
-        <v>195</v>
-      </c>
       <c r="H64" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I64" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="15"/>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="15"/>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="15"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
+        <v>58</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="15">
+        <v>42487</v>
+      </c>
+      <c r="D65" s="29">
+        <v>3</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="I65" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
+        <v>59</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="15">
+        <v>42487</v>
+      </c>
+      <c r="D66" s="28">
+        <v>3.5</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="G66" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="I66" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
+        <v>60</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="15">
+        <v>42487</v>
+      </c>
+      <c r="D67" s="28">
+        <v>4</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="I67" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="11">
+        <v>61</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="15">
+        <v>42487</v>
+      </c>
+      <c r="D68" s="28">
+        <v>3.5</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="I68" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="11">
+        <v>62</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="15">
+        <v>42487</v>
+      </c>
+      <c r="D69" s="28">
+        <v>4</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="I69" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A70" s="11">
+        <v>63</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="15">
+        <v>42487</v>
+      </c>
+      <c r="D70" s="29">
+        <v>3</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G70" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="I70" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="11">
+        <v>64</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="15">
+        <v>42487</v>
+      </c>
+      <c r="D71" s="29">
+        <v>3</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G71" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="I71" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A72" s="11">
+        <v>65</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="15">
+        <v>42487</v>
+      </c>
+      <c r="D72" s="29">
+        <v>3</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="I72" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="126" x14ac:dyDescent="0.25">
+      <c r="A73" s="11">
+        <v>66</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="15">
+        <v>42487</v>
+      </c>
+      <c r="D73" s="28">
+        <v>4</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G73" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="I73" s="24" t="s">
+        <v>206</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
